--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_pseudoinverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_pseudoinverse_kernel.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.31268436578171</v>
+        <v>95.72271386430678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09749307439342374</v>
+        <v>0.1049802402153243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9631268436578171</v>
+        <v>0.9572271386430679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9619656151858006</v>
+        <v>0.9557906210093812</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.59899307087431</v>
+        <v>91.4161022154171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2184201642912024</v>
+        <v>0.30831563390675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9359899307087431</v>
+        <v>0.9141610221541709</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9333065559266137</v>
+        <v>0.907287498152507</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.96165191740413</v>
+        <v>95.95870206489676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1150319177472435</v>
+        <v>0.1265293950390818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9696165191740412</v>
+        <v>0.9595870206489675</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9690597219716658</v>
+        <v>0.9571290939235617</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.70796460176992</v>
+        <v>92.0353982300885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2549781405066217</v>
+        <v>0.2091160861940201</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9070796460176991</v>
+        <v>0.9203539823008849</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8989249242614508</v>
+        <v>0.9171993184742748</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.22210399743942</v>
+        <v>83.80634780577687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3641273365356028</v>
+        <v>0.3525427307235077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8522210399743942</v>
+        <v>0.8380634780577687</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8456456428761594</v>
+        <v>0.8327173872838127</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.70813761364718</v>
+        <v>91.71108746615455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3447169137963405</v>
+        <v>0.1997449808055535</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9070813761364718</v>
+        <v>0.9171108746615456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8901380683658949</v>
+        <v>0.9109209740614979</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.29793510324484</v>
+        <v>91.53392330383481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2054582146920438</v>
+        <v>0.2188115631901989</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9129793510324484</v>
+        <v>0.9153392330383481</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9152342186812472</v>
+        <v>0.9131151295939605</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.77876106194689</v>
+        <v>94.10029498525074</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1242682383635232</v>
+        <v>0.1389935076841236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.947787610619469</v>
+        <v>0.9410029498525073</v>
       </c>
       <c r="E9" t="n">
-        <v>0.947341031033879</v>
+        <v>0.939004334218516</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.09144542772862</v>
+        <v>94.74926253687315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2492661945696454</v>
+        <v>0.1552462293004889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9109144542772862</v>
+        <v>0.9474926253687315</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9054484568764408</v>
+        <v>0.9462057646248214</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.44542772861357</v>
+        <v>92.59587020648968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2700288135335086</v>
+        <v>0.2042978262101011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9144542772861357</v>
+        <v>0.9259587020648968</v>
       </c>
       <c r="E11" t="n">
-        <v>0.902862108078148</v>
+        <v>0.9161299410996285</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.83775811209441</v>
+        <v>84.12979351032449</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6576416533150525</v>
+        <v>0.6619191211034681</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8483775811209439</v>
+        <v>0.8412979351032448</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8333612434459502</v>
+        <v>0.8300330452780607</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.07669616519175</v>
+        <v>88.14159292035399</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5158661864727037</v>
+        <v>0.5059026276972872</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8607669616519175</v>
+        <v>0.8814159292035398</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8439513026120062</v>
+        <v>0.8659710713347882</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.29203539823008</v>
+        <v>99.2330383480826</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03114431072056997</v>
+        <v>0.03971027115386505</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9929203539823008</v>
+        <v>0.9923303834808259</v>
       </c>
       <c r="E14" t="n">
-        <v>0.992929310133867</v>
+        <v>0.9923316351204198</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.5575221238938</v>
+        <v>99.26253687315634</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01470911005448355</v>
+        <v>0.0200046380974418</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9955752212389382</v>
+        <v>0.9926253687315635</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9956012498329809</v>
+        <v>0.9925561011797426</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.01769911504425</v>
+        <v>95.42772861356931</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08119032078803912</v>
+        <v>0.1054533980679632</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9601769911504425</v>
+        <v>0.9542772861356932</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9580141524981821</v>
+        <v>0.9510625495662914</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.527121053527</v>
+        <v>92.65495952963836</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2362893726520003</v>
+        <v>0.2234378832926117</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9252712105352701</v>
+        <v>0.9265495952963839</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9195855734520192</v>
+        <v>0.9218302976614177</v>
       </c>
     </row>
   </sheetData>
